--- a/论文原始数据.xlsx
+++ b/论文原始数据.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.personal_docu\code\python_proj\Value_Solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6278EBF7-1D3A-4C56-A3AE-CBFF83D9AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454BE9AA-5A17-4443-AB59-15E2CF1A1FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1930" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -155,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -235,25 +234,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,8 +539,8 @@
   <dimension ref="A1:BI42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -580,90 +579,90 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10" t="s">
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10" t="s">
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10" t="s">
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10" t="s">
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10" t="s">
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10" t="s">
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10" t="s">
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
     </row>
     <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1271,7 +1270,7 @@
       <c r="BI6" s="5"/>
     </row>
     <row r="7" spans="1:61" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="5"/>
@@ -1471,7 +1470,7 @@
       <c r="BI8" s="5"/>
     </row>
     <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="5"/>
@@ -2188,66 +2187,66 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="12"/>
-      <c r="BB21" s="12"/>
-      <c r="BC21" s="12"/>
-      <c r="BD21" s="12"/>
-      <c r="BE21" s="12"/>
-      <c r="BF21" s="12"/>
-      <c r="BG21" s="12"/>
-      <c r="BH21" s="12"/>
-      <c r="BI21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="14"/>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -2967,6 +2966,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="24">
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="B21:F21"/>
@@ -2983,14 +2990,6 @@
     <mergeCell ref="BE21:BI21"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2998,13 +2997,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -3018,8 +3010,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3028,7 +3027,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/论文原始数据.xlsx
+++ b/论文原始数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.personal_docu\code\python_proj\Value_Solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454BE9AA-5A17-4443-AB59-15E2CF1A1FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAAFE31-152F-468D-8966-9A334CCD0C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3490" yWindow="2670" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,8 +539,8 @@
   <dimension ref="A1:BI42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,8 @@
     <col min="13" max="13" width="10.33203125"/>
     <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.58203125"/>
-    <col min="17" max="19" width="10.25"/>
+    <col min="17" max="17" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.25"/>
     <col min="24" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -1353,11 +1354,21 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="Q8" s="5">
+        <v>19056214</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2019628</v>
+      </c>
+      <c r="S8" s="5">
+        <v>7294384.1375000002</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.64889793315343203</v>
+      </c>
+      <c r="U8" s="5">
+        <v>451.66771674156098</v>
+      </c>
       <c r="V8" s="5">
         <v>1843033.75</v>
       </c>
@@ -2966,14 +2977,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="24">
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="B21:F21"/>
@@ -2990,6 +2993,14 @@
     <mergeCell ref="BE21:BI21"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2997,6 +3008,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -3010,15 +3028,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3027,7 +3038,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/论文原始数据.xlsx
+++ b/论文原始数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.personal_docu\code\python_proj\Value_Solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAAFE31-152F-468D-8966-9A334CCD0C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354D477A-4D80-4862-978E-D443E00023AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3490" yWindow="2670" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:BI42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -2977,6 +2977,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="24">
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="B21:F21"/>
@@ -2993,14 +3001,6 @@
     <mergeCell ref="BE21:BI21"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3008,13 +3008,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -3028,8 +3021,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3038,7 +3038,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/论文原始数据.xlsx
+++ b/论文原始数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="8055"/>
+    <workbookView windowWidth="21097" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>datasets name</t>
   </si>
   <si>
     <t>subgraph 0</t>
-  </si>
-  <si>
-    <t>subgraph 1</t>
   </si>
   <si>
     <t>subgraph 2</t>
@@ -152,7 +149,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,19 +162,6 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -655,137 +639,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -795,10 +779,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -807,13 +788,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1133,12 +1114,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BI42"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O15" sqref="O15"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1146,35 +1127,32 @@
     <col min="1" max="1" width="62.8318584070796" customWidth="1"/>
     <col min="2" max="4" width="9" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="8.58407079646018" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8318584070796"/>
-    <col min="8" max="8" width="15.8318584070796"/>
-    <col min="9" max="9" width="12.8318584070796" customWidth="1"/>
-    <col min="12" max="12" width="12.5840707964602"/>
-    <col min="13" max="13" width="10.5221238938053"/>
-    <col min="14" max="14" width="11.1681415929204" customWidth="1"/>
-    <col min="15" max="15" width="12.5840707964602"/>
-    <col min="17" max="17" width="12.2477876106195" customWidth="1"/>
-    <col min="18" max="19" width="11.1681415929204" customWidth="1"/>
-    <col min="22" max="22" width="11.1681415929204" customWidth="1"/>
-    <col min="23" max="23" width="10.5221238938053"/>
-    <col min="24" max="24" width="11.1681415929204" customWidth="1"/>
-    <col min="25" max="25" width="10.0796460176991" customWidth="1"/>
+    <col min="7" max="7" width="12.5840707964602"/>
+    <col min="8" max="8" width="10.5221238938053"/>
+    <col min="9" max="9" width="11.1681415929204" customWidth="1"/>
+    <col min="10" max="10" width="12.5840707964602"/>
+    <col min="12" max="12" width="12.2477876106195" customWidth="1"/>
+    <col min="13" max="14" width="11.1681415929204" customWidth="1"/>
+    <col min="17" max="17" width="11.1681415929204" customWidth="1"/>
+    <col min="18" max="18" width="10.5221238938053"/>
+    <col min="19" max="19" width="11.1681415929204" customWidth="1"/>
+    <col min="20" max="20" width="10.0796460176991" customWidth="1"/>
+    <col min="22" max="22" width="12.2477876106195" customWidth="1"/>
+    <col min="23" max="25" width="11.1681415929204" customWidth="1"/>
     <col min="27" max="27" width="12.2477876106195" customWidth="1"/>
-    <col min="28" max="30" width="11.1681415929204" customWidth="1"/>
+    <col min="28" max="29" width="11.1681415929204" customWidth="1"/>
+    <col min="31" max="31" width="10.2477876106195"/>
     <col min="32" max="32" width="12.2477876106195" customWidth="1"/>
     <col min="33" max="34" width="11.1681415929204" customWidth="1"/>
-    <col min="36" max="36" width="10.2477876106195"/>
     <col min="37" max="37" width="12.2477876106195" customWidth="1"/>
     <col min="38" max="39" width="11.1681415929204" customWidth="1"/>
-    <col min="42" max="42" width="12.2477876106195" customWidth="1"/>
-    <col min="43" max="44" width="11.1681415929204" customWidth="1"/>
-    <col min="47" max="47" width="11.1681415929204" customWidth="1"/>
-    <col min="48" max="48" width="10.5221238938053"/>
-    <col min="49" max="49" width="11.1681415929204" customWidth="1"/>
-    <col min="52" max="54" width="10.5221238938053"/>
+    <col min="42" max="42" width="11.1681415929204" customWidth="1"/>
+    <col min="43" max="43" width="10.5221238938053"/>
+    <col min="44" max="44" width="11.1681415929204" customWidth="1"/>
+    <col min="47" max="49" width="10.5221238938053"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:61">
+    <row r="1" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,362 +1233,325 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:56">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:61">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:56">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:61">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="3">
+        <v>518802.6875</v>
+      </c>
+      <c r="H3" s="3">
+        <v>516662.75</v>
+      </c>
+      <c r="I3" s="3">
+        <v>518023.95</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.00146572181383329</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2443.49208312034</v>
+      </c>
+      <c r="L3" s="9">
+        <v>300671.5</v>
+      </c>
+      <c r="M3" s="9">
+        <v>298663.65625</v>
+      </c>
+      <c r="N3" s="9">
+        <v>299611.20625</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.00222705309143903</v>
+      </c>
+      <c r="P3" s="9">
+        <v>896.358114147186</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>133014.53125</v>
+      </c>
+      <c r="R3" s="9">
+        <v>132651.515625</v>
+      </c>
+      <c r="S3" s="9">
+        <v>132813.775</v>
+      </c>
+      <c r="T3" s="13">
+        <v>0.0010355519989253</v>
+      </c>
+      <c r="U3" s="9">
+        <v>16.113109254837</v>
+      </c>
+      <c r="V3" s="9">
+        <v>178551.53125</v>
+      </c>
+      <c r="W3" s="3">
+        <v>174533.671875</v>
+      </c>
+      <c r="X3" s="3">
+        <v>176705.94375</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.00879591991372634</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>75.2867697715759</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>211729.84375</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>210806.71875</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>211204.9875</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.00152794746432123</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>52.4160725116729</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>270877.0625</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>267575.6875</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>269391</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0.00412973655715561</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>150.350597000122</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>206872.671875</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>205600.78125</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>206151.65625</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0.00221839392486823</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>66.3005062103271</v>
+      </c>
+      <c r="AP3" s="13">
+        <v>388022.3125</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>387502.5625</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>387828.40625</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>0.000494975194506613</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>21.7280546188354</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>429434.3125</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>428348.375</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>429003.54375</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>0.00108308099031159</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>6.37025480270385</v>
+      </c>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:56">
+      <c r="A4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="3">
-        <v>113831.859375</v>
-      </c>
-      <c r="H3" s="3">
-        <v>113809.1796875</v>
-      </c>
-      <c r="I3" s="10">
-        <v>113820.340625</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.0019</v>
-      </c>
-      <c r="K3" s="3">
-        <v>3.10779137611389</v>
-      </c>
-      <c r="L3" s="3">
-        <v>518802.6875</v>
-      </c>
-      <c r="M3" s="3">
-        <v>516662.75</v>
-      </c>
-      <c r="N3" s="3">
-        <v>518023.95</v>
-      </c>
-      <c r="O3" s="10">
-        <v>1.11289179836665</v>
-      </c>
-      <c r="P3" s="10">
-        <v>2443.49208312034</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>300671.5</v>
-      </c>
-      <c r="R3" s="10">
-        <v>298663.65625</v>
-      </c>
-      <c r="S3" s="10">
-        <v>299611.20625</v>
-      </c>
-      <c r="T3" s="10">
-        <v>1.48600131580942</v>
-      </c>
-      <c r="U3" s="10">
-        <v>896.358114147186</v>
-      </c>
-      <c r="V3" s="10">
-        <v>133014.53125</v>
-      </c>
-      <c r="W3" s="10">
-        <v>132651.515625</v>
-      </c>
-      <c r="X3" s="10">
-        <v>132813.775</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>0.142425234629512</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>16.113109254837</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>178551.53125</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>174533.671875</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>176705.94375</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>13.6714220569202</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>75.2867697715759</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>211729.84375</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>210806.71875</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>211204.9875</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>0.493084117361338</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>52.4160725116729</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>270877.0625</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>267575.6875</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>269391</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>4.59438916157184</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>150.350597000122</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>206872.671875</v>
-      </c>
-      <c r="AQ3" s="3">
-        <v>205600.78125</v>
-      </c>
-      <c r="AR3" s="3">
-        <v>206151.65625</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>1.01452829241079</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>66.3005062103271</v>
-      </c>
-      <c r="AU3" s="14">
-        <v>388022.3125</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>387502.5625</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>387828.40625</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>0.0950181314078254</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>21.7280546188354</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>429434.3125</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>428348.375</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>429003.54375</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>0.503248798192474</v>
-      </c>
-      <c r="BD3" s="3">
-        <v>6.37025480270385</v>
-      </c>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:61">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1662,515 +1603,472 @@
       <c r="BB4" s="3"/>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="55.5" spans="1:61">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="55.5" spans="1:56">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>113811.0703125</v>
+        <v>1108183.75</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3">
-        <v>3.04106012980143</v>
+        <v>2614.85278113683</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3">
-        <v>1108183.75</v>
+        <v>633283</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3">
-        <v>2614.85278113683</v>
+        <v>374.061174472173</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3">
-        <v>633283</v>
+        <v>172933</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3">
-        <v>374.061174472173</v>
+        <v>16.0401494503021</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3">
-        <v>172933</v>
+        <v>310669.65625</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3">
-        <v>16.0401494503021</v>
+        <v>73.3897677262624</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3">
-        <v>310669.65625</v>
+        <v>334983.0625</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3">
-        <v>73.3897677262624</v>
+        <v>52.6831204096476</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3">
-        <v>334983.0625</v>
+        <v>646384.875</v>
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3">
-        <v>52.6831204096476</v>
+        <v>144.842805544535</v>
       </c>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3">
-        <v>646384.875</v>
+        <v>310107.28125</v>
       </c>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3">
-        <v>144.842805544535</v>
+        <v>64.5639332135518</v>
       </c>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3">
-        <v>310107.28125</v>
+        <v>418471.90625</v>
       </c>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3">
-        <v>64.5639332135518</v>
+        <v>21.4865438143412</v>
       </c>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
       <c r="AW5" s="3">
-        <v>418471.90625</v>
+        <v>434840.15625</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3">
-        <v>21.4865438143412</v>
+        <v>6.27716104189554</v>
       </c>
       <c r="AZ5" s="3"/>
       <c r="BA5" s="3"/>
-      <c r="BB5" s="3">
-        <v>434840.15625</v>
-      </c>
+      <c r="BB5" s="3"/>
       <c r="BC5" s="3"/>
-      <c r="BD5" s="3">
-        <v>6.27716104189554</v>
-      </c>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="41.65" spans="1:61">
+      <c r="BD5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="41.65" spans="1:56">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>113811.0703125</v>
+        <v>625296.25</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3">
-        <v>3.07625131607055</v>
+        <v>2601.58694728215</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3">
-        <v>625296.25</v>
+        <v>336589</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3">
-        <v>2601.58694728215</v>
+        <v>373.391248544057</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3">
-        <v>336589</v>
+        <v>136282.109375</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3">
-        <v>373.391248544057</v>
+        <v>16.3049492359161</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3">
-        <v>136282.109375</v>
+        <v>194261.8125</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3">
-        <v>16.3049492359161</v>
+        <v>73.8524537881215</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3">
-        <v>194261.8125</v>
+        <v>221245.9375</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3">
-        <v>73.8524537881215</v>
+        <v>50.7970655759175</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3">
-        <v>221245.9375</v>
+        <v>306518.0625</v>
       </c>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3">
-        <v>50.7970655759175</v>
+        <v>146.780789693196</v>
       </c>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3">
-        <v>306518.0625</v>
+        <v>219678.75</v>
       </c>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3">
-        <v>146.780789693196</v>
+        <v>65.0109408696492</v>
       </c>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="3">
-        <v>219678.75</v>
+      <c r="AR6" s="13">
+        <v>391688.59375</v>
       </c>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3">
-        <v>65.0109408696492</v>
+        <v>21.3483204046885</v>
       </c>
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
-      <c r="AW6" s="14">
-        <v>391688.59375</v>
+      <c r="AW6" s="3">
+        <v>431902.53125</v>
       </c>
       <c r="AX6" s="3"/>
       <c r="AY6" s="3">
-        <v>21.3483204046885</v>
+        <v>6.31749661763509</v>
       </c>
       <c r="AZ6" s="3"/>
       <c r="BA6" s="3"/>
-      <c r="BB6" s="3">
-        <v>431902.53125</v>
-      </c>
+      <c r="BB6" s="3"/>
       <c r="BC6" s="3"/>
-      <c r="BD6" s="3">
-        <v>6.31749661763509</v>
-      </c>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="41.65" spans="1:61">
-      <c r="A7" s="5" t="s">
+      <c r="BD6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="41.65" spans="1:56">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3">
+        <v>626409.375</v>
+      </c>
+      <c r="H7" s="3">
+        <v>599935.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>610645.15</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.0181611161600689</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2661.97499833107</v>
+      </c>
+      <c r="L7" s="3">
+        <v>348882.84375</v>
+      </c>
+      <c r="M7" s="3">
+        <v>330295.78125</v>
+      </c>
+      <c r="N7" s="3">
+        <v>339811.275</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.0222199435437605</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1152.23431658744</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>133334.46875</v>
+      </c>
+      <c r="R7" s="3">
+        <v>132910.40625</v>
+      </c>
+      <c r="S7" s="3">
+        <v>133166.80625</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.0011300612287858</v>
+      </c>
+      <c r="U7" s="3">
+        <v>20.7064126014709</v>
+      </c>
+      <c r="V7" s="3">
+        <v>187585.671875</v>
+      </c>
+      <c r="W7" s="3">
+        <v>184406.828125</v>
+      </c>
+      <c r="X7" s="3">
+        <v>186463.38125</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.00581347393336154</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>91.7178087234497</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>213689.53125</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>213102.03125</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>213425.634375</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.00108726793928386</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>66.0826424121856</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>312718.90625</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>304410.65625</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>307653.075</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.00999985760452337</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>179.360690784454</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>214483.421875</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>211233.28125</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>212475.5875</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0.00541185984227748</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>80.3588335037231</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>387903.15625</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>387353.78125</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>387609</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>0.000457181199009262</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>27.4007248401641</v>
+      </c>
+      <c r="AU7" s="13">
+        <v>429788.625</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>428520.1875</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>429263.03125</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>0.00123955071053174</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>8.62437462806701</v>
+      </c>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:56">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
-        <v>626409.375</v>
-      </c>
-      <c r="M7" s="3">
-        <v>599935.5</v>
-      </c>
-      <c r="N7" s="3">
-        <v>610645.15</v>
-      </c>
-      <c r="O7" s="3">
-        <v>201.406732843841</v>
-      </c>
-      <c r="P7" s="3">
-        <v>2661.97499833107</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>348882.84375</v>
-      </c>
-      <c r="R7" s="3">
-        <v>330295.78125</v>
-      </c>
-      <c r="S7" s="3">
-        <v>339811.275</v>
-      </c>
-      <c r="T7" s="3">
-        <v>167.773624551092</v>
-      </c>
-      <c r="U7" s="3">
-        <v>1152.23431658744</v>
-      </c>
-      <c r="V7" s="3">
-        <v>133334.46875</v>
-      </c>
-      <c r="W7" s="3">
-        <v>132910.40625</v>
-      </c>
-      <c r="X7" s="3">
-        <v>133166.80625</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0.170059122630456</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>20.7064126014709</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>187585.671875</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>184406.828125</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>186463.38125</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>6.30180578110578</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>91.7178087234497</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>213689.53125</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>213102.03125</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>213425.634375</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>0.252301449137662</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>66.0826424121856</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>312718.90625</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>304410.65625</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>307653.075</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>30.7644313381131</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>179.360690784454</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>214483.421875</v>
-      </c>
-      <c r="AQ7" s="3">
-        <v>211233.28125</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>212475.5875</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>6.22303322855634</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>80.3588335037231</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>387903.15625</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>387353.78125</v>
-      </c>
-      <c r="AW7" s="3">
-        <v>387609</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>0.0810159589786356</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>27.4007248401641</v>
-      </c>
-      <c r="AZ7" s="14">
-        <v>429788.625</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>428520.1875</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>429263.03125</v>
-      </c>
-      <c r="BC7" s="3">
-        <v>0.65955662237103</v>
-      </c>
-      <c r="BD7" s="3">
-        <v>8.62437462806701</v>
-      </c>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:61">
-      <c r="A8" s="1" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>19056214</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2019628</v>
+      </c>
+      <c r="N8" s="3">
+        <v>7294384.1375</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.648897933153432</v>
+      </c>
+      <c r="P8" s="3">
+        <v>451.667716741561</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1843033.75</v>
+      </c>
+      <c r="R8" s="3">
+        <v>589815.5</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1006036.97</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="V8" s="3">
+        <v>12685274</v>
+      </c>
+      <c r="W8" s="3">
+        <v>870200.06</v>
+      </c>
+      <c r="X8" s="3">
+        <v>3736953.03</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>6.53</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>18952374</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1225741.5</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>7089344.11</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>4.52</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>12575050</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1269610.25</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>4906292.32</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>13.15</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>18879898</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>1924578.37</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>9004990.19</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>6.43</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>2297975.5</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>700264.75</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>1157956.35</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>549050.5</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>525251.75</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>534887.07</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:56">
+      <c r="A9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="3">
-        <v>118941.15</v>
-      </c>
-      <c r="H8" s="3">
-        <v>114684.52</v>
-      </c>
-      <c r="I8" s="3">
-        <v>115108.68</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.007</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>19056214</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2019628</v>
-      </c>
-      <c r="S8" s="3">
-        <v>7294384.1375</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0.648897933153432</v>
-      </c>
-      <c r="U8" s="3">
-        <v>451.667716741561</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1843033.75</v>
-      </c>
-      <c r="W8" s="3">
-        <v>589815.5</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1006036.97</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0.56</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>12685274</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>870200.06</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>3736953.03</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>6.53</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>18952374</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>1225741.5</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>7089344.11</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>4.52</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>12575050</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>1269610.25</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>4906292.32</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>13.15</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>18879898</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>1924578.37</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>9004990.19</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>6.43</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>2297975.5</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>700264.75</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>1157956.35</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>549050.5</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>525251.75</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>534887.07</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="BD8" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:61">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2222,15 +2120,10 @@
       <c r="BB9" s="3"/>
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:61">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:56">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2282,15 +2175,10 @@
       <c r="BB10" s="3"/>
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:61">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:56">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2342,15 +2230,10 @@
       <c r="BB11" s="3"/>
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:61">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:56">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2402,15 +2285,10 @@
       <c r="BB12" s="3"/>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:61">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:56">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2462,28 +2340,23 @@
       <c r="BB13" s="3"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:61">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:56">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2524,15 +2397,10 @@
       <c r="BB14" s="3"/>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:61">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:56">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2584,13 +2452,8 @@
       <c r="BB15" s="3"/>
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="7:61">
+    </row>
+    <row r="16" s="1" customFormat="1" spans="7:56">
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2641,15 +2504,10 @@
       <c r="BB16" s="3"/>
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:61">
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:56">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2701,15 +2559,10 @@
       <c r="BB17" s="3"/>
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:61">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:56">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2761,15 +2614,10 @@
       <c r="BB18" s="3"/>
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:61">
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:56">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2821,13 +2669,8 @@
       <c r="BB19" s="3"/>
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-    </row>
-    <row r="20" spans="7:61">
+    </row>
+    <row r="20" spans="7:56">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2878,225 +2721,205 @@
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-    </row>
-    <row r="21" spans="1:61">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="9"/>
-      <c r="BI21" s="9"/>
-    </row>
-    <row r="22" spans="1:61">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
-      <c r="AY22" s="10"/>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="10"/>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
-      <c r="BE22" s="10"/>
-      <c r="BF22" s="10"/>
-      <c r="BG22" s="10"/>
-      <c r="BH22" s="10"/>
-      <c r="BI22" s="10"/>
-    </row>
-    <row r="23" spans="1:61">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="12"/>
-      <c r="BB23" s="12"/>
-      <c r="BC23" s="12"/>
-      <c r="BD23" s="12"/>
-      <c r="BE23" s="12"/>
-      <c r="BF23" s="12"/>
-      <c r="BG23" s="12"/>
-      <c r="BH23" s="12"/>
-      <c r="BI23" s="12"/>
-    </row>
-    <row r="24" spans="1:61">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
+    </row>
+    <row r="21" spans="1:56">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+    </row>
+    <row r="22" spans="1:56">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+    </row>
+    <row r="23" spans="1:56">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+    </row>
+    <row r="24" spans="1:56">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
@@ -3130,36 +2953,31 @@
       <c r="BB24" s="3"/>
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-    </row>
-    <row r="25" spans="1:61">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+    </row>
+    <row r="25" spans="1:56">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
@@ -3193,36 +3011,31 @@
       <c r="BB25" s="3"/>
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
-      <c r="BI25" s="3"/>
-    </row>
-    <row r="26" spans="1:61">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
+    </row>
+    <row r="26" spans="1:56">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
@@ -3256,415 +3069,330 @@
       <c r="BB26" s="3"/>
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="3"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="24">
+  <mergeCells count="22">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -3676,7 +3404,6 @@
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="L21:P21"/>
@@ -3688,7 +3415,6 @@
     <mergeCell ref="AP21:AT21"/>
     <mergeCell ref="AU21:AY21"/>
     <mergeCell ref="AZ21:BD21"/>
-    <mergeCell ref="BE21:BI21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/论文原始数据.xlsx
+++ b/论文原始数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21097" windowHeight="8400"/>
+    <workbookView windowWidth="18352" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,9 +1117,9 @@
   <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+      <selection pane="topRight" activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -2075,46 +2075,126 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
+      <c r="L9" s="3">
+        <v>25509584</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2260907.75</v>
+      </c>
+      <c r="N9" s="3">
+        <v>7331129.7625</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.711189278512256</v>
+      </c>
+      <c r="P9" s="3">
+        <v>185.246103048324</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2877616.25</v>
+      </c>
+      <c r="R9" s="3">
+        <v>558464.625</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1242520.309375</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.485165119204925</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1.17266378402709</v>
+      </c>
+      <c r="V9" s="3">
+        <v>15679300</v>
+      </c>
+      <c r="W9" s="3">
+        <v>2071323</v>
+      </c>
+      <c r="X9" s="3">
+        <v>5093138.9625</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.656824903338496</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>5.72678296566009</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>28856016</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1454294.5</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>8049652.94375</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.850764958277664</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>4.10148302316665</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>15926707</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>1163738.125</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>4454980.95</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0.874372298699334</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>11.4303936719894</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>14514186</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>1961624.625</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>6694288.90625</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0.555918570104269</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>5.06698044538498</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>2176234.5</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>829184.25</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>1368696.6625</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>0.258094971079997</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>1.65904537439346</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>547595.9375</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>522880.65625</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>534503.3859375</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>0.0122518501720581</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>0.471912717819213</v>
+      </c>
       <c r="AZ9" s="3"/>
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
@@ -2160,16 +2240,36 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
+      <c r="AP10" s="3">
+        <v>730157.9375</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>554927.875</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>631655.721875</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>0.0828211120731461</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>641.822626733779</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>535876.125</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>524677.3125</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>531168.7375</v>
+      </c>
+      <c r="AX10" s="3">
+        <v>0.00576379630444626</v>
+      </c>
+      <c r="AY10" s="3">
+        <v>178.735558390617</v>
+      </c>
       <c r="AZ10" s="3"/>
       <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>

--- a/论文原始数据.xlsx
+++ b/论文原始数据.xlsx
@@ -86,22 +86,24 @@
     <t>value_solver</t>
   </si>
   <si>
-    <t>不加not_reached, lora,loss迭代次数1000+(判断中止条件为not_reached=0)</t>
+    <t>Method A 
+不加not_reached, lora,loss迭代次数1000+(判断中止条件为not_reached=0)</t>
   </si>
   <si>
-    <t>3tln
-三段优化均有not_reached，
-无lora，
+    <t>Method B 3tln
+三段优化均有not_reached，无lora，
 loss迭代次数20</t>
   </si>
   <si>
-    <t>2tln
-第一段优化无not_reached，第二段，第三段优化有not_reached,
-无lora，loss迭代次数20</t>
+    <t>Method C 2tln
+第一段优化无not_reached，无lora
+第二段，第三段优化有not_reached,无lora，
+loss迭代次数20</t>
   </si>
   <si>
-    <t>2t2l
-第一段优化无not_reached，第二段，第三段优化有not_reached和lora
+    <t>Method D 2t2l
+第一段优化无not_reached 无lora
+第二段，第三段优化有not_reached、有lora
 loss迭代次数20</t>
   </si>
   <si>
@@ -117,13 +119,13 @@
     <t>斑马</t>
   </si>
   <si>
-    <t>DQN</t>
+    <t>AC</t>
   </si>
   <si>
-    <t>DDPG</t>
+    <t>SAC</t>
   </si>
   <si>
-    <t>TD3</t>
+    <t>PG</t>
   </si>
   <si>
     <t/>
@@ -769,13 +771,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1116,10 +1121,10 @@
   <sheetPr/>
   <dimension ref="A1:BD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="BA7" sqref="BA7"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1417,43 +1422,43 @@
       <c r="I3" s="3">
         <v>518023.95</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="10">
         <v>0.00146572181383329</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="10">
         <v>2443.49208312034</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="10">
         <v>300671.5</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>298663.65625</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="10">
         <v>299611.20625</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="10">
         <v>0.00222705309143903</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="10">
         <v>896.358114147186</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="10">
         <v>133014.53125</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="10">
         <v>132651.515625</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="10">
         <v>132813.775</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="14">
         <v>0.0010355519989253</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="10">
         <v>16.113109254837</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="10">
         <v>178551.53125</v>
       </c>
       <c r="W3" s="3">
@@ -1513,7 +1518,7 @@
       <c r="AO3" s="3">
         <v>66.3005062103271</v>
       </c>
-      <c r="AP3" s="13">
+      <c r="AP3" s="14">
         <v>388022.3125</v>
       </c>
       <c r="AQ3" s="3">
@@ -1549,8 +1554,8 @@
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:56">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="27.75" spans="1:56">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="3"/>
@@ -1604,8 +1609,8 @@
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="55.5" spans="1:56">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="1" customFormat="1" ht="41.65" spans="1:56">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="3"/>
@@ -1695,8 +1700,8 @@
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="41.65" spans="1:56">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="1" customFormat="1" ht="55.5" spans="1:56">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="3"/>
@@ -1764,7 +1769,7 @@
       </c>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="13">
+      <c r="AR6" s="14">
         <v>391688.59375</v>
       </c>
       <c r="AS6" s="3"/>
@@ -1786,8 +1791,8 @@
       <c r="BC6" s="3"/>
       <c r="BD6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="41.65" spans="1:56">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="1" customFormat="1" ht="55.5" spans="1:56">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="3">
@@ -1910,7 +1915,7 @@
       <c r="AT7" s="3">
         <v>27.4007248401641</v>
       </c>
-      <c r="AU7" s="13">
+      <c r="AU7" s="14">
         <v>429788.625</v>
       </c>
       <c r="AV7" s="3">
@@ -2067,7 +2072,7 @@
       <c r="BD8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:56">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="3"/>
@@ -2276,7 +2281,7 @@
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:56">
+    <row r="11" s="1" customFormat="1" ht="13" customHeight="1" spans="1:56">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2345,9 +2350,15 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="Q12" s="3">
+        <v>139835.453125</v>
+      </c>
+      <c r="R12" s="3">
+        <v>139144.40625</v>
+      </c>
+      <c r="S12" s="3">
+        <v>139536.6125</v>
+      </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -2449,7 +2460,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L14" s="3"/>
@@ -2823,198 +2834,198 @@
       <c r="BD20" s="3"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
     </row>
     <row r="22" spans="1:56">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="11"/>
-      <c r="BB23" s="11"/>
-      <c r="BC23" s="11"/>
-      <c r="BD23" s="11"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
     </row>
     <row r="24" spans="1:56">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -3055,24 +3066,24 @@
       <c r="BD24" s="3"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -3113,24 +3124,24 @@
       <c r="BD25" s="3"/>
     </row>
     <row r="26" spans="1:56">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -3171,324 +3182,324 @@
       <c r="BD26" s="3"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
